--- a/assests/Tire_Images/data.xlsx
+++ b/assests/Tire_Images/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="156">
   <si>
     <t xml:space="preserve">SIZE </t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">توضیحات عکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گل</t>
   </si>
   <si>
     <t xml:space="preserve">1200R24</t>
@@ -51,6 +54,9 @@
   <si>
     <t xml:space="preserve">گرندستون معدنی همراه با تیوپ ونوارکامل
 باگارانتی معتبر شرکتی و کارت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جلو</t>
   </si>
   <si>
     <t xml:space="preserve">https://drive.google.com/file/d/1_tSIF2ulGVC1laOkxzX8_nnIZzVMkq-Z/view?usp=sharing</t>
@@ -259,6 +265,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">عقب</t>
+  </si>
+  <si>
     <t xml:space="preserve">Landspider</t>
   </si>
   <si>
@@ -588,6 +597,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">گرندستون </t>
     </r>
@@ -607,6 +617,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">لایه ساخت کشور چین با گارانتی </t>
     </r>
@@ -626,6 +637,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ساله</t>
     </r>
@@ -692,7 +704,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,14 +737,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -801,23 +808,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1010,10 +1017,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,10 +1029,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="77.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1041,1025 +1048,1012 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="7"/>
+      <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0"/>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0"/>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
-      <c r="B68" s="0"/>
-      <c r="C68" s="0"/>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0"/>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0"/>
-      <c r="B74" s="0"/>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-    </row>
+        <v>154</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://drive.google.com/file/d/1o_L7vbS2Udeu26zC_mwCwstzcHDCoCp-/view?usp=sharing"/>
@@ -2104,14 +2098,14 @@
     <hyperlink ref="D41" r:id="rId40" display="https://drive.google.com/file/d/15gT7IMUMi3KnKAxoR3l_tBSpUtTt8mZf/view?usp=sharing"/>
     <hyperlink ref="D42" r:id="rId41" display="https://drive.google.com/file/d/1bkfN4rn3qGuaA82Es_6NvrZPQj45IC-o/view?usp=sharing"/>
     <hyperlink ref="D43" r:id="rId42" display="https://drive.google.com/file/d/1FD2kK3iyMwOhbSLqlSkaAxNEYnH3jWAy/view?usp=sharing"/>
-    <hyperlink ref="D46" r:id="rId43" display="https://drive.google.com/file/d/1kJ8fpbQ5a5lC1vd0x7fyYhoNDMhntN-Q/view?usp=sharing"/>
-    <hyperlink ref="D47" r:id="rId44" display="https://drive.google.com/file/d/1JPFwW7_H36tCWMKCfahTN0UdxBh1QY2J/view?usp=sharing"/>
-    <hyperlink ref="D48" r:id="rId45" display="https://drive.google.com/file/d/1ex_6f8sVrHM-yrGMAhF8nKDuxEVYGWH6/view?usp=sharing"/>
-    <hyperlink ref="D49" r:id="rId46" display="https://drive.google.com/file/d/10B8H67jiXebsuD7Wi5tJ4y0s7EZqjCj0/view?usp=sharing"/>
-    <hyperlink ref="D50" r:id="rId47" display="https://drive.google.com/file/d/1fHH2h2fC2CUKxqd0EC_tbm3PAgwNmWl5/view?usp=sharing"/>
-    <hyperlink ref="D51" r:id="rId48" display="https://drive.google.com/file/d/1n0E5-klJJvZ8VFgg28iqXAsEKkKLN47o/view?usp=sharing"/>
-    <hyperlink ref="D52" r:id="rId49" display="https://drive.google.com/file/d/1r6J4AumceJZ6mipygIzFUYYBgBp92OM4/view?usp=sharing"/>
-    <hyperlink ref="D53" r:id="rId50" display="https://drive.google.com/file/d/1pdtHw0CXlhQvpT74XEc67nlCCKdCCmjn/view?usp=sharing"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://drive.google.com/file/d/1kJ8fpbQ5a5lC1vd0x7fyYhoNDMhntN-Q/view?usp=sharing"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://drive.google.com/file/d/1JPFwW7_H36tCWMKCfahTN0UdxBh1QY2J/view?usp=sharing"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://drive.google.com/file/d/1ex_6f8sVrHM-yrGMAhF8nKDuxEVYGWH6/view?usp=sharing"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://drive.google.com/file/d/10B8H67jiXebsuD7Wi5tJ4y0s7EZqjCj0/view?usp=sharing"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://drive.google.com/file/d/1fHH2h2fC2CUKxqd0EC_tbm3PAgwNmWl5/view?usp=sharing"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://drive.google.com/file/d/1n0E5-klJJvZ8VFgg28iqXAsEKkKLN47o/view?usp=sharing"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://drive.google.com/file/d/1r6J4AumceJZ6mipygIzFUYYBgBp92OM4/view?usp=sharing"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://drive.google.com/file/d/1pdtHw0CXlhQvpT74XEc67nlCCKdCCmjn/view?usp=sharing"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
